--- a/fow/myFowCompendium.xlsx
+++ b/fow/myFowCompendium.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\GitHub\myFowCompendium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myTcgCompendium\fow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,10 +17,10 @@
     <sheet name="Sets" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cards!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sets!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cards!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sets!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="202">
   <si>
     <t>Dreaming Girl, Wendy</t>
   </si>
@@ -617,25 +617,31 @@
     <t>Buy Status</t>
   </si>
   <si>
-    <t>Pending Confirmation from Potomac Distribution</t>
-  </si>
-  <si>
     <t>Shipped from Amazon</t>
   </si>
   <si>
-    <t>In cart at Potomac Distribution</t>
-  </si>
-  <si>
     <t>Shipped from Desu Nation</t>
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Shipped Potomac Distribution</t>
+  </si>
+  <si>
+    <t>Have &gt; 0</t>
+  </si>
+  <si>
+    <t>% to 4</t>
+  </si>
+  <si>
+    <t>Have 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -699,7 +705,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B0F0"/>
@@ -1033,7 +1059,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1081,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="2">
-        <f>COUNTIFS(Cards!$E:$E,Analytics!$A2,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$E:E,$A2)</f>
+        <f>COUNTIFS(Cards!$H:$H,Analytics!$A2,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:H,$A2)</f>
         <v>0.25</v>
       </c>
     </row>
@@ -1064,7 +1090,7 @@
         <v>189</v>
       </c>
       <c r="B3" s="2">
-        <f>COUNTIFS(Cards!$E:$E,Analytics!$A3,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$E:E,$A3)</f>
+        <f>COUNTIFS(Cards!$H:$H,Analytics!$A3,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:H,$A3)</f>
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
@@ -1079,8 +1105,8 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102:E113"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,10 +1114,10 @@
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1108,16 +1134,16 @@
         <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,17 +1156,20 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1153,17 +1182,20 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1176,17 +1208,20 @@
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1199,17 +1234,20 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,17 +1260,20 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,17 +1286,20 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1268,17 +1312,20 @@
       <c r="C8">
         <v>0</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1291,17 +1338,20 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1314,17 +1364,20 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1337,17 +1390,20 @@
       <c r="C11">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1360,17 +1416,20 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1383,17 +1442,20 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,17 +1468,20 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1429,17 +1494,20 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,17 +1520,20 @@
       <c r="C16">
         <v>0</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,17 +1546,20 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,17 +1572,20 @@
       <c r="C18">
         <v>0</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1521,17 +1598,20 @@
       <c r="C19">
         <v>2</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1544,17 +1624,20 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1567,17 +1650,20 @@
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1590,17 +1676,20 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1613,17 +1702,20 @@
       <c r="C23">
         <v>0</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,17 +1728,20 @@
       <c r="C24">
         <v>0</v>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1659,17 +1754,20 @@
       <c r="C25">
         <v>2</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1682,17 +1780,20 @@
       <c r="C26">
         <v>0</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,17 +1806,20 @@
       <c r="C27">
         <v>0</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1728,17 +1832,20 @@
       <c r="C28">
         <v>0</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1751,17 +1858,20 @@
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1774,17 +1884,20 @@
       <c r="C30">
         <v>1</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,17 +1910,20 @@
       <c r="C31">
         <v>0</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1820,17 +1936,20 @@
       <c r="C32">
         <v>0</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G32" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1843,17 +1962,20 @@
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="G33" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1866,17 +1988,20 @@
       <c r="C34">
         <v>0</v>
       </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1889,17 +2014,20 @@
       <c r="C35">
         <v>0</v>
       </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1912,17 +2040,20 @@
       <c r="C36">
         <v>1</v>
       </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,17 +2066,20 @@
       <c r="C37">
         <v>2</v>
       </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1958,17 +2092,20 @@
       <c r="C38">
         <v>0</v>
       </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G38" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1981,17 +2118,20 @@
       <c r="C39">
         <v>0</v>
       </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="G39" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2004,17 +2144,20 @@
       <c r="C40">
         <v>0</v>
       </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2027,17 +2170,20 @@
       <c r="C41">
         <v>0</v>
       </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2050,17 +2196,20 @@
       <c r="C42">
         <v>0</v>
       </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2073,17 +2222,20 @@
       <c r="C43">
         <v>1</v>
       </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2096,17 +2248,20 @@
       <c r="C44">
         <v>0</v>
       </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G44" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2119,17 +2274,20 @@
       <c r="C45">
         <v>0</v>
       </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="G45" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2142,17 +2300,20 @@
       <c r="C46">
         <v>2</v>
       </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G46" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2165,17 +2326,20 @@
       <c r="C47">
         <v>0</v>
       </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2188,17 +2352,20 @@
       <c r="C48">
         <v>0</v>
       </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G48" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2211,17 +2378,20 @@
       <c r="C49">
         <v>0</v>
       </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2234,17 +2404,20 @@
       <c r="C50">
         <v>0</v>
       </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2257,17 +2430,20 @@
       <c r="C51">
         <v>0</v>
       </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G51" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2280,17 +2456,20 @@
       <c r="C52">
         <v>0</v>
       </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="G52" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2303,17 +2482,20 @@
       <c r="C53">
         <v>1</v>
       </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2326,17 +2508,20 @@
       <c r="C54">
         <v>2</v>
       </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="G54" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2349,17 +2534,20 @@
       <c r="C55">
         <v>0</v>
       </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2372,17 +2560,20 @@
       <c r="C56">
         <v>0</v>
       </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2395,17 +2586,20 @@
       <c r="C57">
         <v>1</v>
       </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2418,17 +2612,20 @@
       <c r="C58">
         <v>1</v>
       </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2441,17 +2638,20 @@
       <c r="C59">
         <v>0</v>
       </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
       <c r="E59" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="G59" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2464,17 +2664,20 @@
       <c r="C60">
         <v>1</v>
       </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G60" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,17 +2690,20 @@
       <c r="C61">
         <v>0</v>
       </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="G61" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2510,17 +2716,20 @@
       <c r="C62">
         <v>0</v>
       </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G62" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2533,17 +2742,20 @@
       <c r="C63">
         <v>0</v>
       </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
       <c r="E63" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="H63" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2556,17 +2768,20 @@
       <c r="C64">
         <v>0</v>
       </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
       <c r="E64" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2579,17 +2794,20 @@
       <c r="C65">
         <v>0</v>
       </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G65" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2602,17 +2820,20 @@
       <c r="C66">
         <v>0</v>
       </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G66" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2625,17 +2846,20 @@
       <c r="C67">
         <v>0</v>
       </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
       <c r="E67" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2648,17 +2872,20 @@
       <c r="C68">
         <v>0</v>
       </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
       <c r="E68" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2671,17 +2898,20 @@
       <c r="C69">
         <v>0</v>
       </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G69" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2694,17 +2924,20 @@
       <c r="C70">
         <v>0</v>
       </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G70" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2717,17 +2950,20 @@
       <c r="C71">
         <v>0</v>
       </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2740,17 +2976,20 @@
       <c r="C72">
         <v>0</v>
       </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
       <c r="E72" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G72" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="H72" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2763,17 +3002,20 @@
       <c r="C73">
         <v>1</v>
       </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
       <c r="E73" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G73" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2786,17 +3028,20 @@
       <c r="C74">
         <v>0</v>
       </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2809,17 +3054,20 @@
       <c r="C75">
         <v>1</v>
       </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G75" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2832,17 +3080,20 @@
       <c r="C76">
         <v>1</v>
       </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G76" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2855,17 +3106,20 @@
       <c r="C77">
         <v>0</v>
       </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G77" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2878,17 +3132,20 @@
       <c r="C78">
         <v>0</v>
       </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G78" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2901,17 +3158,20 @@
       <c r="C79">
         <v>1</v>
       </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G79" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2924,17 +3184,20 @@
       <c r="C80">
         <v>0</v>
       </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
       <c r="E80" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G80" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2947,17 +3210,20 @@
       <c r="C81">
         <v>0</v>
       </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G81" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2970,17 +3236,20 @@
       <c r="C82">
         <v>0</v>
       </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G82" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2993,17 +3262,20 @@
       <c r="C83">
         <v>0</v>
       </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G83" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3016,17 +3288,20 @@
       <c r="C84">
         <v>0</v>
       </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
       <c r="E84" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3039,17 +3314,20 @@
       <c r="C85">
         <v>0</v>
       </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
       <c r="E85" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="G85" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3062,17 +3340,20 @@
       <c r="C86">
         <v>0</v>
       </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
       <c r="E86" t="s">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G86" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3085,17 +3366,20 @@
       <c r="C87">
         <v>0</v>
       </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
       <c r="E87" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3108,17 +3392,20 @@
       <c r="C88">
         <v>0</v>
       </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G88" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3131,17 +3418,20 @@
       <c r="C89">
         <v>0</v>
       </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
       <c r="E89" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G89" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3154,17 +3444,20 @@
       <c r="C90">
         <v>0</v>
       </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3177,17 +3470,20 @@
       <c r="C91">
         <v>0</v>
       </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F91" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="G91" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3200,17 +3496,20 @@
       <c r="C92">
         <v>0</v>
       </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="G92" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="H92" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3223,17 +3522,20 @@
       <c r="C93">
         <v>0</v>
       </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="G93" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3246,17 +3548,20 @@
       <c r="C94">
         <v>0</v>
       </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F94" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="G94" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3269,17 +3574,20 @@
       <c r="C95">
         <v>0</v>
       </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="G95" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3292,17 +3600,20 @@
       <c r="C96">
         <v>0</v>
       </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F96" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="G96" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3315,17 +3626,20 @@
       <c r="C97">
         <v>1</v>
       </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G97" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H97" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3338,17 +3652,20 @@
       <c r="C98">
         <v>1</v>
       </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G98" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H98" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3361,17 +3678,20 @@
       <c r="C99">
         <v>0</v>
       </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G99" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H99" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3384,17 +3704,20 @@
       <c r="C100">
         <v>0</v>
       </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="F100" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G100" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H100" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3407,17 +3730,20 @@
       <c r="C101">
         <v>0</v>
       </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
       <c r="E101" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="F101" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G101" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H101" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3430,17 +3756,20 @@
       <c r="C102">
         <v>1</v>
       </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
       <c r="E102" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" t="s">
+        <v>115</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" t="s">
         <v>189</v>
-      </c>
-      <c r="F102" t="s">
-        <v>134</v>
-      </c>
-      <c r="G102" t="s">
-        <v>115</v>
-      </c>
-      <c r="H102" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3453,17 +3782,20 @@
       <c r="C103">
         <v>4</v>
       </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
       <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>115</v>
+      </c>
+      <c r="G103" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" t="s">
         <v>189</v>
-      </c>
-      <c r="F103" t="s">
-        <v>4</v>
-      </c>
-      <c r="G103" t="s">
-        <v>115</v>
-      </c>
-      <c r="H103" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3476,17 +3808,20 @@
       <c r="C104">
         <v>4</v>
       </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
       <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>115</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
         <v>189</v>
-      </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
-        <v>115</v>
-      </c>
-      <c r="H104" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3499,17 +3834,20 @@
       <c r="C105">
         <v>4</v>
       </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
       <c r="E105" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>115</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
         <v>189</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
-        <v>115</v>
-      </c>
-      <c r="H105" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3522,17 +3860,20 @@
       <c r="C106">
         <v>4</v>
       </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
       <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>115</v>
+      </c>
+      <c r="G106" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" t="s">
         <v>189</v>
-      </c>
-      <c r="F106" t="s">
-        <v>1</v>
-      </c>
-      <c r="G106" t="s">
-        <v>115</v>
-      </c>
-      <c r="H106" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3545,17 +3886,20 @@
       <c r="C107">
         <v>4</v>
       </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
       <c r="E107" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>115</v>
+      </c>
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" t="s">
         <v>189</v>
-      </c>
-      <c r="F107" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" t="s">
-        <v>115</v>
-      </c>
-      <c r="H107" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3568,17 +3912,20 @@
       <c r="C108">
         <v>4</v>
       </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
       <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>115</v>
+      </c>
+      <c r="G108" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" t="s">
         <v>189</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>115</v>
-      </c>
-      <c r="H108" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3591,17 +3938,20 @@
       <c r="C109">
         <v>4</v>
       </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
       <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>115</v>
+      </c>
+      <c r="G109" t="s">
+        <v>5</v>
+      </c>
+      <c r="H109" t="s">
         <v>189</v>
-      </c>
-      <c r="F109" t="s">
-        <v>4</v>
-      </c>
-      <c r="G109" t="s">
-        <v>115</v>
-      </c>
-      <c r="H109" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3614,17 +3964,20 @@
       <c r="C110">
         <v>4</v>
       </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
       <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>115</v>
+      </c>
+      <c r="G110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" t="s">
         <v>189</v>
-      </c>
-      <c r="F110" t="s">
-        <v>1</v>
-      </c>
-      <c r="G110" t="s">
-        <v>115</v>
-      </c>
-      <c r="H110" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3637,17 +3990,20 @@
       <c r="C111">
         <v>4</v>
       </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
       <c r="E111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>115</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" t="s">
         <v>189</v>
-      </c>
-      <c r="F111" t="s">
-        <v>1</v>
-      </c>
-      <c r="G111" t="s">
-        <v>115</v>
-      </c>
-      <c r="H111" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3660,17 +4016,20 @@
       <c r="C112">
         <v>4</v>
       </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
       <c r="E112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>115</v>
+      </c>
+      <c r="G112" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112" t="s">
         <v>189</v>
-      </c>
-      <c r="F112" t="s">
-        <v>1</v>
-      </c>
-      <c r="G112" t="s">
-        <v>115</v>
-      </c>
-      <c r="H112" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3683,32 +4042,35 @@
       <c r="C113">
         <v>4</v>
       </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
       <c r="E113" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113" t="s">
+        <v>115</v>
+      </c>
+      <c r="G113" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113" t="s">
         <v>189</v>
       </c>
-      <c r="F113" t="s">
-        <v>105</v>
-      </c>
-      <c r="G113" t="s">
-        <v>115</v>
-      </c>
-      <c r="H113" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
-  <conditionalFormatting sqref="C2:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <autoFilter ref="A1:G1"/>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3718,582 +4080,1097 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A2,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A2,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A2)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A2,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>149</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="5">
+      <c r="G2" s="5">
         <v>41244</v>
       </c>
-      <c r="E2" s="5">
+      <c r="H2" s="5">
         <v>41674</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A3,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A3,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A3)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A3,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>149</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="5">
+      <c r="G3" s="5">
         <v>41335</v>
       </c>
-      <c r="E3" s="5">
+      <c r="H3" s="5">
         <v>41845</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A4,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A4,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A4)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A4,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>149</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="5">
+      <c r="G4" s="5">
         <v>41419</v>
       </c>
-      <c r="E4" s="5">
+      <c r="H4" s="5">
         <v>41845</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A5,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A5,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A5)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A5,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>157</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="5">
+      <c r="G5" s="5">
         <v>41894</v>
       </c>
-      <c r="E5" s="5">
+      <c r="H5" s="5">
         <v>42048</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A6,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A6,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A6)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A6,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="5">
+        <v>41992</v>
+      </c>
+      <c r="H6" s="5">
+        <v>42048</v>
+      </c>
+      <c r="I6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="6">
+        <v>106.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A7,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A7,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A7)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A7,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="5">
+        <v>42104</v>
+      </c>
+      <c r="H7" s="5">
+        <v>42118</v>
+      </c>
+      <c r="I7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A8,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A8,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A8)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A8,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <v>42209</v>
+      </c>
+      <c r="I8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="J8" s="6">
+        <v>39.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A9,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A9,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A9)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A9,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>157</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="5">
+        <v>42215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A10,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A10,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A10)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A10,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="5">
-        <v>41992</v>
-      </c>
-      <c r="E6" s="5">
-        <v>42048</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H10" s="5">
+        <v>42272</v>
+      </c>
+      <c r="I10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="6">
+        <v>74.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A11,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A11,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A11)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A11,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="5">
+        <v>42349</v>
+      </c>
+      <c r="I11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J11" s="6">
+        <v>92.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A12,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A12,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A12)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A12,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="5">
+        <v>42440</v>
+      </c>
+      <c r="I12" t="s">
         <v>198</v>
       </c>
-      <c r="G6" s="6">
-        <v>106.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="J12" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A13,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A13,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A13)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A13,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="5">
+        <v>42552</v>
+      </c>
+      <c r="I13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A14,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A14,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A14)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A14,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="5">
+        <v>42580</v>
+      </c>
+      <c r="I14" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14" s="6">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A15,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A15),0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A15,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A15)/4,0)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A15,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="5">
+        <v>42622</v>
+      </c>
+      <c r="I15" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A16,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A16,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A16)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A16,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="5">
+        <v>42713</v>
+      </c>
+      <c r="I16" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A17,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A17,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A17)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A17,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="5">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A18,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A18,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A18)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A18,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="5">
+        <v>42804</v>
+      </c>
+      <c r="I18" t="s">
+        <v>198</v>
+      </c>
+      <c r="J18" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A19,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A19,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A19)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A19,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A20,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A20,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A20)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A20,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A21,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A21,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A21)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A21,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A22,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A22,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A22)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A22,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A23,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A23,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A23)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A23,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A24,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A24,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A24)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A24,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A25,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A25,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A25)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A25,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>157</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A26,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A26,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A26)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A26,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A27,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A27,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A27)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A27,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="5">
-        <v>42104</v>
-      </c>
-      <c r="E7" s="5">
-        <v>42118</v>
-      </c>
-      <c r="F7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>42209</v>
-      </c>
-      <c r="F8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" s="6">
-        <v>39.92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="5">
-        <v>42215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="5">
-        <v>42272</v>
-      </c>
-      <c r="F10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="6">
-        <v>74.61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="5">
-        <v>42349</v>
-      </c>
-      <c r="F11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="6">
-        <v>92.74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="5">
-        <v>42440</v>
-      </c>
-      <c r="F12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="5">
-        <v>42552</v>
-      </c>
-      <c r="F13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="5">
-        <v>42580</v>
-      </c>
-      <c r="F14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="6">
-        <v>25.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A28,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A28,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A28)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A28,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>191</v>
       </c>
-      <c r="C15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="5">
-        <v>42622</v>
-      </c>
-      <c r="F15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A29,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A29,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A29)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A29,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
         <v>191</v>
       </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="5">
-        <v>42713</v>
-      </c>
-      <c r="F16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A30,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A30,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A30)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A30,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>191</v>
       </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="5">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="F30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A31,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A31),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A31,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A31)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A31,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A31),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
         <v>191</v>
       </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="5">
-        <v>42804</v>
-      </c>
-      <c r="F18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A32,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A32),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A32,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A32)/4,0)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D32" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A32,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A32),0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A33,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A33,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A33)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A33,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A34,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A34),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A34,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A34)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A34,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A34),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A35,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A35),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A35,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A35)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A35,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A35),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A36,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A36),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A36,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A36)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A36,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A36),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A37,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A37),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A37,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A37)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A37,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A37),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A38,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$H:$H,$A38),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <f>IFERROR(SUMIF(Cards!$H:$H,$A38,Cards!$C:$C)/COUNTIF(Cards!$H:$H,$A38)/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <f>IFERROR(COUNTIFS(Cards!$H:$H,$A38,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$H:$H,$A38),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>162</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
-  <sortState ref="A2:F41">
-    <sortCondition ref="D2:D41"/>
+  <autoFilter ref="A1:J1"/>
+  <sortState ref="A2:I41">
+    <sortCondition ref="G2:G41"/>
+    <sortCondition ref="H2:H41"/>
     <sortCondition ref="E2:E41"/>
-    <sortCondition ref="B2:B41"/>
-    <sortCondition ref="C2:C41"/>
+    <sortCondition ref="F2:F41"/>
     <sortCondition ref="A2:A41"/>
   </sortState>
+  <conditionalFormatting sqref="B2:D38">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{319681C8-E7AB-4886-89EE-17596DB584D6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{319681C8-E7AB-4886-89EE-17596DB584D6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:D38</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/fow/myFowCompendium.xlsx
+++ b/fow/myFowCompendium.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myTcgCompendium\fow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\GitHub\myTcgCompendium\fow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cards!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sets!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -626,9 +626,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Shipped Potomac Distribution</t>
-  </si>
-  <si>
     <t>Have &gt; 0</t>
   </si>
   <si>
@@ -636,12 +633,15 @@
   </si>
   <si>
     <t>Have 4</t>
+  </si>
+  <si>
+    <t>Shipped from Potomac Distribution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -705,27 +705,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF00B0F0"/>
@@ -4061,16 +4041,16 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4086,7 +4066,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,6 +4078,7 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -4106,13 +4087,13 @@
         <v>130</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>145</v>
@@ -4249,7 +4230,7 @@
         <v>42048</v>
       </c>
       <c r="I5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J5" s="6">
         <v>81</v>
@@ -4319,7 +4300,7 @@
         <v>42118</v>
       </c>
       <c r="I7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J7" s="6">
         <v>81</v>
@@ -4474,7 +4455,7 @@
         <v>42440</v>
       </c>
       <c r="I12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J12" s="6">
         <v>83</v>
@@ -4506,7 +4487,7 @@
         <v>42552</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J13" s="6">
         <v>83</v>
@@ -4570,7 +4551,7 @@
         <v>42622</v>
       </c>
       <c r="I15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J15" s="6">
         <v>83</v>
@@ -4602,7 +4583,7 @@
         <v>42713</v>
       </c>
       <c r="I16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J16" s="6">
         <v>85</v>
@@ -4660,7 +4641,7 @@
         <v>42804</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J18" s="6">
         <v>85</v>

--- a/fow/myFowCompendium.xlsx
+++ b/fow/myFowCompendium.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analytics" sheetId="3" r:id="rId1"/>
@@ -1839,147 +1839,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2101,6 +1961,86 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -2110,7 +2050,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2125,30 +2065,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M38" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M38" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:M38"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Code" dataDxfId="36"/>
-    <tableColumn id="2" name="Set" dataDxfId="35"/>
-    <tableColumn id="3" name="Have &gt; 0" dataDxfId="34" dataCellStyle="Percent">
+    <tableColumn id="1" name="Code" dataDxfId="8"/>
+    <tableColumn id="2" name="Set" dataDxfId="7"/>
+    <tableColumn id="3" name="Have &gt; 0" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(COUNTIFS(Cards!$J:$J,$B2,Cards!$C:$C,"&gt;0")/COUNTIF(Cards!$J:$J,$B2),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="% to 4" dataDxfId="33" dataCellStyle="Percent">
+    <tableColumn id="4" name="% to 4" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(SUMIF(Cards!$J:$J,$B2,Cards!$C:$C)/COUNTIF(Cards!$J:$J,$B2)/4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Have 4" dataDxfId="32" dataCellStyle="Percent">
+    <tableColumn id="5" name="Have 4" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(COUNTIFS(Cards!$J:$J,$B2,Cards!$C:$C,"&gt;=4")/COUNTIF(Cards!$J:$J,$B2),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Cluster"/>
     <tableColumn id="7" name="Type"/>
     <tableColumn id="8" name="JP Release"/>
-    <tableColumn id="9" name="EN Release" dataDxfId="31"/>
+    <tableColumn id="9" name="EN Release" dataDxfId="3"/>
     <tableColumn id="10" name="Buy Status"/>
-    <tableColumn id="11" name="Cost" dataDxfId="30" dataCellStyle="Currency"/>
-    <tableColumn id="12" name="$/card" dataDxfId="29">
+    <tableColumn id="11" name="Cost" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="12" name="$/card" dataDxfId="1">
       <calculatedColumnFormula>Table3[[#This Row],[Cost]]/Table3[[#This Row],[cards]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="cards" dataDxfId="28"/>
+    <tableColumn id="13" name="cards" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2501,8 +2441,8 @@
   <dimension ref="A1:J428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B389" sqref="B389"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G310" sqref="G310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8327,6 +8267,13 @@
       <c r="C224">
         <v>3</v>
       </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <f>C224+D224</f>
+        <v>3</v>
+      </c>
       <c r="F224">
         <v>0</v>
       </c>
@@ -8351,6 +8298,13 @@
         <v>355</v>
       </c>
       <c r="C225">
+        <v>4</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <f t="shared" ref="E225:E288" si="0">C225+D225</f>
         <v>4</v>
       </c>
       <c r="F225">
@@ -8379,6 +8333,13 @@
       <c r="C226">
         <v>4</v>
       </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F226">
         <v>0</v>
       </c>
@@ -8403,6 +8364,13 @@
         <v>357</v>
       </c>
       <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F227">
@@ -8431,6 +8399,13 @@
       <c r="C228">
         <v>3</v>
       </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="F228">
         <v>0</v>
       </c>
@@ -8457,6 +8432,13 @@
       <c r="C229">
         <v>4</v>
       </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F229">
         <v>0</v>
       </c>
@@ -8483,6 +8465,13 @@
       <c r="C230">
         <v>4</v>
       </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F230">
         <v>0</v>
       </c>
@@ -8509,6 +8498,13 @@
       <c r="C231">
         <v>2</v>
       </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F231">
         <v>0</v>
       </c>
@@ -8535,6 +8531,13 @@
       <c r="C232">
         <v>4</v>
       </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F232">
         <v>0</v>
       </c>
@@ -8561,6 +8564,13 @@
       <c r="C233">
         <v>1</v>
       </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F233">
         <v>0</v>
       </c>
@@ -8587,6 +8597,13 @@
       <c r="C234">
         <v>4</v>
       </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F234">
         <v>0</v>
       </c>
@@ -8613,6 +8630,13 @@
       <c r="C235">
         <v>3</v>
       </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="F235">
         <v>0</v>
       </c>
@@ -8639,6 +8663,13 @@
       <c r="C236">
         <v>4</v>
       </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F236">
         <v>0</v>
       </c>
@@ -8665,6 +8696,13 @@
       <c r="C237">
         <v>3</v>
       </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="F237">
         <v>0</v>
       </c>
@@ -8691,6 +8729,13 @@
       <c r="C238">
         <v>2</v>
       </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F238">
         <v>0</v>
       </c>
@@ -8717,6 +8762,13 @@
       <c r="C239">
         <v>2</v>
       </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F239">
         <v>0</v>
       </c>
@@ -8743,6 +8795,13 @@
       <c r="C240">
         <v>3</v>
       </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="F240">
         <v>0</v>
       </c>
@@ -8759,7 +8818,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>18</v>
       </c>
@@ -8767,6 +8826,13 @@
         <v>374</v>
       </c>
       <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F241">
@@ -8795,6 +8861,13 @@
       <c r="C242">
         <v>4</v>
       </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F242">
         <v>0</v>
       </c>
@@ -8821,6 +8894,13 @@
       <c r="C243">
         <v>4</v>
       </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F243">
         <v>0</v>
       </c>
@@ -8847,6 +8927,13 @@
       <c r="C244">
         <v>4</v>
       </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F244">
         <v>0</v>
       </c>
@@ -8873,6 +8960,13 @@
       <c r="C245">
         <v>4</v>
       </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F245">
         <v>0</v>
       </c>
@@ -8899,6 +8993,13 @@
       <c r="C246">
         <v>1</v>
       </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F246">
         <v>0</v>
       </c>
@@ -8925,6 +9026,13 @@
       <c r="C247">
         <v>3</v>
       </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="F247">
         <v>0</v>
       </c>
@@ -8951,6 +9059,13 @@
       <c r="C248">
         <v>2</v>
       </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F248">
         <v>0</v>
       </c>
@@ -8977,6 +9092,13 @@
       <c r="C249">
         <v>1</v>
       </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F249">
         <v>0</v>
       </c>
@@ -9003,6 +9125,13 @@
       <c r="C250">
         <v>1</v>
       </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F250">
         <v>0</v>
       </c>
@@ -9029,6 +9158,13 @@
       <c r="C251">
         <v>3</v>
       </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="F251">
         <v>0</v>
       </c>
@@ -9055,6 +9191,13 @@
       <c r="C252">
         <v>4</v>
       </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F252">
         <v>0</v>
       </c>
@@ -9081,6 +9224,13 @@
       <c r="C253">
         <v>4</v>
       </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F253">
         <v>0</v>
       </c>
@@ -9107,6 +9257,13 @@
       <c r="C254">
         <v>4</v>
       </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F254">
         <v>0</v>
       </c>
@@ -9133,6 +9290,13 @@
       <c r="C255">
         <v>4</v>
       </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F255">
         <v>0</v>
       </c>
@@ -9149,7 +9313,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>33</v>
       </c>
@@ -9157,6 +9321,13 @@
         <v>390</v>
       </c>
       <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F256">
@@ -9185,6 +9356,13 @@
       <c r="C257">
         <v>4</v>
       </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F257">
         <v>0</v>
       </c>
@@ -9211,6 +9389,13 @@
       <c r="C258">
         <v>1</v>
       </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F258">
         <v>0</v>
       </c>
@@ -9237,6 +9422,13 @@
       <c r="C259">
         <v>3</v>
       </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="F259">
         <v>0</v>
       </c>
@@ -9263,6 +9455,13 @@
       <c r="C260">
         <v>3</v>
       </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="F260">
         <v>0</v>
       </c>
@@ -9289,6 +9488,13 @@
       <c r="C261">
         <v>4</v>
       </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F261">
         <v>0</v>
       </c>
@@ -9315,6 +9521,13 @@
       <c r="C262">
         <v>2</v>
       </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F262">
         <v>0</v>
       </c>
@@ -9341,6 +9554,13 @@
       <c r="C263">
         <v>4</v>
       </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F263">
         <v>0</v>
       </c>
@@ -9367,6 +9587,13 @@
       <c r="C264">
         <v>1</v>
       </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F264">
         <v>0</v>
       </c>
@@ -9393,6 +9620,13 @@
       <c r="C265">
         <v>4</v>
       </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F265">
         <v>0</v>
       </c>
@@ -9419,6 +9653,13 @@
       <c r="C266">
         <v>4</v>
       </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F266">
         <v>0</v>
       </c>
@@ -9445,6 +9686,13 @@
       <c r="C267">
         <v>2</v>
       </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F267">
         <v>0</v>
       </c>
@@ -9461,7 +9709,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>45</v>
       </c>
@@ -9469,6 +9717,13 @@
         <v>406</v>
       </c>
       <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F268">
@@ -9497,6 +9752,13 @@
       <c r="C269">
         <v>4</v>
       </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F269">
         <v>0</v>
       </c>
@@ -9523,6 +9785,13 @@
       <c r="C270">
         <v>4</v>
       </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F270">
         <v>0</v>
       </c>
@@ -9549,6 +9818,13 @@
       <c r="C271">
         <v>4</v>
       </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F271">
         <v>0</v>
       </c>
@@ -9575,6 +9851,13 @@
       <c r="C272">
         <v>2</v>
       </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F272">
         <v>0</v>
       </c>
@@ -9601,6 +9884,13 @@
       <c r="C273">
         <v>4</v>
       </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F273">
         <v>0</v>
       </c>
@@ -9627,6 +9917,13 @@
       <c r="C274">
         <v>4</v>
       </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F274">
         <v>0</v>
       </c>
@@ -9653,6 +9950,13 @@
       <c r="C275">
         <v>1</v>
       </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F275">
         <v>0</v>
       </c>
@@ -9679,6 +9983,13 @@
       <c r="C276">
         <v>4</v>
       </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F276">
         <v>0</v>
       </c>
@@ -9705,6 +10016,13 @@
       <c r="C277">
         <v>4</v>
       </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F277">
         <v>0</v>
       </c>
@@ -9731,6 +10049,13 @@
       <c r="C278">
         <v>4</v>
       </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F278">
         <v>0</v>
       </c>
@@ -9757,6 +10082,13 @@
       <c r="C279">
         <v>2</v>
       </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F279">
         <v>0</v>
       </c>
@@ -9783,6 +10115,13 @@
       <c r="C280">
         <v>3</v>
       </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="F280">
         <v>0</v>
       </c>
@@ -9799,7 +10138,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>58</v>
       </c>
@@ -9807,6 +10146,13 @@
         <v>465</v>
       </c>
       <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F281">
@@ -9835,6 +10181,13 @@
       <c r="C282">
         <v>4</v>
       </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F282">
         <v>0</v>
       </c>
@@ -9861,6 +10214,13 @@
       <c r="C283">
         <v>2</v>
       </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F283">
         <v>0</v>
       </c>
@@ -9887,6 +10247,13 @@
       <c r="C284">
         <v>4</v>
       </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F284">
         <v>0</v>
       </c>
@@ -9913,6 +10280,13 @@
       <c r="C285">
         <v>2</v>
       </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F285">
         <v>0</v>
       </c>
@@ -9939,6 +10313,13 @@
       <c r="C286">
         <v>4</v>
       </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F286">
         <v>0</v>
       </c>
@@ -9965,6 +10346,13 @@
       <c r="C287">
         <v>4</v>
       </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F287">
         <v>0</v>
       </c>
@@ -9981,7 +10369,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>65</v>
       </c>
@@ -9989,6 +10377,13 @@
         <v>464</v>
       </c>
       <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F288">
@@ -10017,6 +10412,13 @@
       <c r="C289">
         <v>3</v>
       </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <f t="shared" ref="E289:E323" si="1">C289+D289</f>
+        <v>3</v>
+      </c>
       <c r="F289">
         <v>0</v>
       </c>
@@ -10043,6 +10445,13 @@
       <c r="C290">
         <v>1</v>
       </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="F290">
         <v>0</v>
       </c>
@@ -10069,6 +10478,13 @@
       <c r="C291">
         <v>2</v>
       </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F291">
         <v>0</v>
       </c>
@@ -10085,7 +10501,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>69</v>
       </c>
@@ -10093,6 +10509,13 @@
         <v>463</v>
       </c>
       <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F292">
@@ -10121,6 +10544,13 @@
       <c r="C293">
         <v>4</v>
       </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F293">
         <v>0</v>
       </c>
@@ -10137,7 +10567,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>71</v>
       </c>
@@ -10145,6 +10575,13 @@
         <v>462</v>
       </c>
       <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F294">
@@ -10173,6 +10610,13 @@
       <c r="C295">
         <v>3</v>
       </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="F295">
         <v>0</v>
       </c>
@@ -10199,6 +10643,13 @@
       <c r="C296">
         <v>4</v>
       </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F296">
         <v>0</v>
       </c>
@@ -10225,6 +10676,13 @@
       <c r="C297">
         <v>4</v>
       </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F297">
         <v>0</v>
       </c>
@@ -10251,6 +10709,13 @@
       <c r="C298">
         <v>4</v>
       </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F298">
         <v>0</v>
       </c>
@@ -10277,6 +10742,13 @@
       <c r="C299">
         <v>4</v>
       </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F299">
         <v>0</v>
       </c>
@@ -10303,6 +10775,13 @@
       <c r="C300">
         <v>4</v>
       </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F300">
         <v>0</v>
       </c>
@@ -10329,6 +10808,13 @@
       <c r="C301">
         <v>1</v>
       </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="F301">
         <v>0</v>
       </c>
@@ -10345,7 +10831,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>79</v>
       </c>
@@ -10353,6 +10839,13 @@
         <v>438</v>
       </c>
       <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F302">
@@ -10381,6 +10874,13 @@
       <c r="C303">
         <v>4</v>
       </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F303">
         <v>0</v>
       </c>
@@ -10407,6 +10907,13 @@
       <c r="C304">
         <v>4</v>
       </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F304">
         <v>0</v>
       </c>
@@ -10433,6 +10940,13 @@
       <c r="C305">
         <v>4</v>
       </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F305">
         <v>0</v>
       </c>
@@ -10459,6 +10973,13 @@
       <c r="C306">
         <v>4</v>
       </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F306">
         <v>0</v>
       </c>
@@ -10475,7 +10996,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>84</v>
       </c>
@@ -10483,6 +11004,13 @@
         <v>443</v>
       </c>
       <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F307">
@@ -10511,6 +11039,13 @@
       <c r="C308">
         <v>4</v>
       </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F308">
         <v>0</v>
       </c>
@@ -10537,6 +11072,13 @@
       <c r="C309">
         <v>4</v>
       </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F309">
         <v>0</v>
       </c>
@@ -10553,7 +11095,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>87</v>
       </c>
@@ -10561,6 +11103,13 @@
         <v>460</v>
       </c>
       <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F310">
@@ -10589,6 +11138,13 @@
       <c r="C311">
         <v>2</v>
       </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F311">
         <v>0</v>
       </c>
@@ -10615,6 +11171,13 @@
       <c r="C312">
         <v>3</v>
       </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="F312">
         <v>0</v>
       </c>
@@ -10641,6 +11204,13 @@
       <c r="C313">
         <v>2</v>
       </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F313">
         <v>0</v>
       </c>
@@ -10667,6 +11237,13 @@
       <c r="C314">
         <v>4</v>
       </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F314">
         <v>0</v>
       </c>
@@ -10693,6 +11270,13 @@
       <c r="C315">
         <v>1</v>
       </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="F315">
         <v>0</v>
       </c>
@@ -10719,6 +11303,13 @@
       <c r="C316">
         <v>2</v>
       </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F316">
         <v>0</v>
       </c>
@@ -10745,6 +11336,13 @@
       <c r="C317">
         <v>4</v>
       </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F317">
         <v>0</v>
       </c>
@@ -10771,6 +11369,13 @@
       <c r="C318">
         <v>4</v>
       </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="F318">
         <v>0</v>
       </c>
@@ -10797,6 +11402,13 @@
       <c r="C319">
         <v>2</v>
       </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F319">
         <v>0</v>
       </c>
@@ -10823,6 +11435,13 @@
       <c r="C320">
         <v>1</v>
       </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="F320">
         <v>0</v>
       </c>
@@ -10849,6 +11468,13 @@
       <c r="C321">
         <v>1</v>
       </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="F321">
         <v>0</v>
       </c>
@@ -10875,6 +11501,13 @@
       <c r="C322">
         <v>2</v>
       </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F322">
         <v>0</v>
       </c>
@@ -10891,7 +11524,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>100</v>
       </c>
@@ -10901,6 +11534,13 @@
       <c r="C323">
         <v>0</v>
       </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F323">
         <v>0</v>
       </c>
@@ -10917,7 +11557,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1</v>
       </c>
@@ -10950,7 +11590,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
@@ -10964,7 +11604,7 @@
         <v>1</v>
       </c>
       <c r="E325">
-        <f t="shared" ref="E325:E386" si="0">C325+D325</f>
+        <f t="shared" ref="E325:E386" si="2">C325+D325</f>
         <v>4</v>
       </c>
       <c r="F325">
@@ -10983,7 +11623,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>3</v>
       </c>
@@ -10997,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F326">
@@ -11016,7 +11656,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>4</v>
       </c>
@@ -11030,7 +11670,7 @@
         <v>3</v>
       </c>
       <c r="E327">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F327">
@@ -11049,7 +11689,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>5</v>
       </c>
@@ -11063,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="E328">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F328">
@@ -11082,7 +11722,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>6</v>
       </c>
@@ -11096,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F329">
@@ -11115,7 +11755,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>7</v>
       </c>
@@ -11129,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F330">
@@ -11148,7 +11788,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>8</v>
       </c>
@@ -11162,7 +11802,7 @@
         <v>2</v>
       </c>
       <c r="E331">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F331">
@@ -11181,7 +11821,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>9</v>
       </c>
@@ -11195,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F332">
@@ -11214,7 +11854,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>10</v>
       </c>
@@ -11228,7 +11868,7 @@
         <v>2</v>
       </c>
       <c r="E333">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F333">
@@ -11247,7 +11887,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>11</v>
       </c>
@@ -11261,7 +11901,7 @@
         <v>3</v>
       </c>
       <c r="E334">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F334">
@@ -11280,7 +11920,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>12</v>
       </c>
@@ -11294,7 +11934,7 @@
         <v>2</v>
       </c>
       <c r="E335">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F335">
@@ -11313,7 +11953,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>13</v>
       </c>
@@ -11327,7 +11967,7 @@
         <v>3</v>
       </c>
       <c r="E336">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F336">
@@ -11346,7 +11986,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>14</v>
       </c>
@@ -11360,7 +12000,7 @@
         <v>3</v>
       </c>
       <c r="E337">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F337">
@@ -11379,7 +12019,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>15</v>
       </c>
@@ -11393,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F338">
@@ -11412,7 +12052,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>16</v>
       </c>
@@ -11426,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F339">
@@ -11445,7 +12085,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>17</v>
       </c>
@@ -11459,7 +12099,7 @@
         <v>2</v>
       </c>
       <c r="E340">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F340">
@@ -11478,7 +12118,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>18</v>
       </c>
@@ -11492,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="E341">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F341">
@@ -11511,7 +12151,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>19</v>
       </c>
@@ -11525,7 +12165,7 @@
         <v>2</v>
       </c>
       <c r="E342">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F342">
@@ -11544,7 +12184,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>20</v>
       </c>
@@ -11558,7 +12198,7 @@
         <v>4</v>
       </c>
       <c r="E343">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F343">
@@ -11577,7 +12217,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>21</v>
       </c>
@@ -11591,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="E344">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F344">
@@ -11610,7 +12250,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>22</v>
       </c>
@@ -11624,7 +12264,7 @@
         <v>2</v>
       </c>
       <c r="E345">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F345">
@@ -11643,7 +12283,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>23</v>
       </c>
@@ -11657,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F346">
@@ -11676,7 +12316,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>24</v>
       </c>
@@ -11690,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F347">
@@ -11709,7 +12349,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>25</v>
       </c>
@@ -11723,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F348">
@@ -11742,7 +12382,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>26</v>
       </c>
@@ -11756,7 +12396,7 @@
         <v>2</v>
       </c>
       <c r="E349">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F349">
@@ -11775,7 +12415,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>27</v>
       </c>
@@ -11789,7 +12429,7 @@
         <v>2</v>
       </c>
       <c r="E350">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F350">
@@ -11808,7 +12448,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>28</v>
       </c>
@@ -11822,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F351">
@@ -11841,7 +12481,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>29</v>
       </c>
@@ -11855,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F352">
@@ -11874,7 +12514,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>30</v>
       </c>
@@ -11888,7 +12528,7 @@
         <v>3</v>
       </c>
       <c r="E353">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F353">
@@ -11907,7 +12547,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>31</v>
       </c>
@@ -11921,7 +12561,7 @@
         <v>2</v>
       </c>
       <c r="E354">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F354">
@@ -11940,7 +12580,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>32</v>
       </c>
@@ -11954,7 +12594,7 @@
         <v>2</v>
       </c>
       <c r="E355">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F355">
@@ -11973,7 +12613,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>33</v>
       </c>
@@ -11987,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="E356">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F356">
@@ -12006,7 +12646,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>34</v>
       </c>
@@ -12020,7 +12660,7 @@
         <v>1</v>
       </c>
       <c r="E357">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F357">
@@ -12039,7 +12679,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>35</v>
       </c>
@@ -12053,7 +12693,7 @@
         <v>2</v>
       </c>
       <c r="E358">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F358">
@@ -12072,7 +12712,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>36</v>
       </c>
@@ -12086,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F359">
@@ -12105,7 +12745,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>37</v>
       </c>
@@ -12119,7 +12759,7 @@
         <v>3</v>
       </c>
       <c r="E360">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F360">
@@ -12138,7 +12778,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>38</v>
       </c>
@@ -12152,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F361">
@@ -12171,7 +12811,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>39</v>
       </c>
@@ -12185,7 +12825,7 @@
         <v>2</v>
       </c>
       <c r="E362">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F362">
@@ -12204,7 +12844,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>40</v>
       </c>
@@ -12218,7 +12858,7 @@
         <v>2</v>
       </c>
       <c r="E363">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F363">
@@ -12237,7 +12877,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>41</v>
       </c>
@@ -12251,7 +12891,7 @@
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F364">
@@ -12270,7 +12910,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>42</v>
       </c>
@@ -12284,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F365">
@@ -12303,7 +12943,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>43</v>
       </c>
@@ -12317,7 +12957,7 @@
         <v>3</v>
       </c>
       <c r="E366">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F366">
@@ -12336,7 +12976,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>44</v>
       </c>
@@ -12350,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="E367">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F367">
@@ -12369,7 +13009,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>45</v>
       </c>
@@ -12383,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F368">
@@ -12402,7 +13042,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>46</v>
       </c>
@@ -12416,7 +13056,7 @@
         <v>2</v>
       </c>
       <c r="E369">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F369">
@@ -12435,7 +13075,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>47</v>
       </c>
@@ -12449,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F370">
@@ -12468,7 +13108,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>48</v>
       </c>
@@ -12482,7 +13122,7 @@
         <v>1</v>
       </c>
       <c r="E371">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F371">
@@ -12501,7 +13141,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>49</v>
       </c>
@@ -12515,7 +13155,7 @@
         <v>1</v>
       </c>
       <c r="E372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F372">
@@ -12534,7 +13174,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>50</v>
       </c>
@@ -12548,7 +13188,7 @@
         <v>3</v>
       </c>
       <c r="E373">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F373">
@@ -12567,7 +13207,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>51</v>
       </c>
@@ -12581,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F374">
@@ -12600,7 +13240,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>52</v>
       </c>
@@ -12614,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F375">
@@ -12633,7 +13273,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>53</v>
       </c>
@@ -12647,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F376">
@@ -12666,7 +13306,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>54</v>
       </c>
@@ -12680,7 +13320,7 @@
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F377">
@@ -12699,7 +13339,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>55</v>
       </c>
@@ -12713,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F378">
@@ -12732,7 +13372,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>56</v>
       </c>
@@ -12746,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F379">
@@ -12765,7 +13405,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>57</v>
       </c>
@@ -12779,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F380">
@@ -12798,7 +13438,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>58</v>
       </c>
@@ -12812,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F381">
@@ -12831,7 +13471,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>59</v>
       </c>
@@ -12845,7 +13485,7 @@
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F382">
@@ -12864,7 +13504,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>60</v>
       </c>
@@ -12878,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F383">
@@ -12897,7 +13537,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>61</v>
       </c>
@@ -12911,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="E384">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F384">
@@ -12930,7 +13570,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>62</v>
       </c>
@@ -12944,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="E385">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F385">
@@ -12963,7 +13603,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>63</v>
       </c>
@@ -12977,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F386">
@@ -12996,7 +13636,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>64</v>
       </c>
@@ -13010,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E428" si="1">C387+D387</f>
+        <f t="shared" ref="E387:E428" si="3">C387+D387</f>
         <v>1</v>
       </c>
       <c r="F387">
@@ -13029,7 +13669,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>65</v>
       </c>
@@ -13043,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F388">
@@ -13062,7 +13702,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>66</v>
       </c>
@@ -13076,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F389">
@@ -13095,7 +13735,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>67</v>
       </c>
@@ -13109,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="E390">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F390">
@@ -13128,7 +13768,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>68</v>
       </c>
@@ -13142,7 +13782,7 @@
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F391">
@@ -13161,7 +13801,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>69</v>
       </c>
@@ -13175,7 +13815,7 @@
         <v>3</v>
       </c>
       <c r="E392">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F392">
@@ -13194,7 +13834,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>70</v>
       </c>
@@ -13208,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="E393">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F393">
@@ -13227,7 +13867,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>71</v>
       </c>
@@ -13241,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F394">
@@ -13260,7 +13900,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>72</v>
       </c>
@@ -13274,7 +13914,7 @@
         <v>2</v>
       </c>
       <c r="E395">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F395">
@@ -13293,7 +13933,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>73</v>
       </c>
@@ -13307,7 +13947,7 @@
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F396">
@@ -13326,7 +13966,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>74</v>
       </c>
@@ -13340,7 +13980,7 @@
         <v>3</v>
       </c>
       <c r="E397">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F397">
@@ -13359,7 +13999,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>75</v>
       </c>
@@ -13373,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F398">
@@ -13392,7 +14032,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>76</v>
       </c>
@@ -13406,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F399">
@@ -13425,7 +14065,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>77</v>
       </c>
@@ -13439,7 +14079,7 @@
         <v>3</v>
       </c>
       <c r="E400">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F400">
@@ -13458,7 +14098,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>78</v>
       </c>
@@ -13472,7 +14112,7 @@
         <v>2</v>
       </c>
       <c r="E401">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F401">
@@ -13491,7 +14131,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>79</v>
       </c>
@@ -13505,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F402">
@@ -13524,7 +14164,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>80</v>
       </c>
@@ -13538,7 +14178,7 @@
         <v>1</v>
       </c>
       <c r="E403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F403">
@@ -13557,7 +14197,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>81</v>
       </c>
@@ -13571,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F404">
@@ -13590,7 +14230,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>82</v>
       </c>
@@ -13604,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F405">
@@ -13623,7 +14263,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>83</v>
       </c>
@@ -13637,7 +14277,7 @@
         <v>1</v>
       </c>
       <c r="E406">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F406">
@@ -13656,7 +14296,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>84</v>
       </c>
@@ -13670,7 +14310,7 @@
         <v>3</v>
       </c>
       <c r="E407">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F407">
@@ -13689,7 +14329,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>85</v>
       </c>
@@ -13703,7 +14343,7 @@
         <v>2</v>
       </c>
       <c r="E408">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F408">
@@ -13722,7 +14362,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>86</v>
       </c>
@@ -13736,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F409">
@@ -13755,7 +14395,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>87</v>
       </c>
@@ -13769,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F410">
@@ -13788,7 +14428,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>88</v>
       </c>
@@ -13802,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F411">
@@ -13821,7 +14461,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>89</v>
       </c>
@@ -13835,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="E412">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F412">
@@ -13854,7 +14494,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>90</v>
       </c>
@@ -13868,7 +14508,7 @@
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F413">
@@ -13887,7 +14527,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>91</v>
       </c>
@@ -13901,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="E414">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F414">
@@ -13920,7 +14560,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>92</v>
       </c>
@@ -13934,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="E415">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F415">
@@ -13953,7 +14593,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>93</v>
       </c>
@@ -13967,7 +14607,7 @@
         <v>4</v>
       </c>
       <c r="E416">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F416">
@@ -13986,7 +14626,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>94</v>
       </c>
@@ -14000,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F417">
@@ -14019,7 +14659,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>95</v>
       </c>
@@ -14033,7 +14673,7 @@
         <v>2</v>
       </c>
       <c r="E418">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F418">
@@ -14052,7 +14692,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>96</v>
       </c>
@@ -14066,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F419">
@@ -14085,7 +14725,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>97</v>
       </c>
@@ -14099,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F420">
@@ -14118,7 +14758,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>98</v>
       </c>
@@ -14132,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F421">
@@ -14151,7 +14791,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>99</v>
       </c>
@@ -14165,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F422">
@@ -14184,7 +14824,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>100</v>
       </c>
@@ -14198,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F423">
@@ -14217,7 +14857,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>101</v>
       </c>
@@ -14231,7 +14871,7 @@
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F424">
@@ -14250,7 +14890,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>102</v>
       </c>
@@ -14264,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F425">
@@ -14283,7 +14923,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>103</v>
       </c>
@@ -14297,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F426">
@@ -14316,7 +14956,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>104</v>
       </c>
@@ -14330,7 +14970,7 @@
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F427">
@@ -14349,7 +14989,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>105</v>
       </c>
@@ -14363,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F428">
@@ -14384,51 +15024,56 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J428">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="9">
       <filters>
-        <filter val="Return of the Dragon Emperor"/>
+        <filter val="Legacy Lost"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="C2:C113 E2:E113 C324:C1048576 E324:E1048576">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114:C223 E114:E223">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C224:C323 E224:E323">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15986,16 +16631,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Shipped">
+    <cfRule type="beginsWith" dxfId="13" priority="1" operator="beginsWith" text="Shipped">
       <formula>LEFT(J1,LEN("Shipped"))="Shipped"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="None">
+    <cfRule type="beginsWith" dxfId="12" priority="2" operator="beginsWith" text="None">
       <formula>LEFT(J1,LEN("None"))="None"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" operator="beginsWith" text="Bought">
+    <cfRule type="beginsWith" dxfId="11" priority="5" operator="beginsWith" text="Bought">
       <formula>LEFT(J1,LEN("Bought"))="Bought"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="6" operator="beginsWith" text="Arrived">
+    <cfRule type="beginsWith" dxfId="10" priority="6" operator="beginsWith" text="Arrived">
       <formula>LEFT(J1,LEN("Arrived"))="Arrived"</formula>
     </cfRule>
   </conditionalFormatting>
